--- a/data-sources/texas-dshs.xlsx
+++ b/data-sources/texas-dshs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\dev\dev-projects\odessacoding.github.io\data-sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FCC452-FBDB-49ED-AC09-C361BF390C38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB793303-B8B9-4B2A-8A0A-7D0A71F2AE48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="360" windowWidth="29610" windowHeight="20640" xr2:uid="{B0BA5A12-EDD4-4CB3-898D-58D5D4D39DFA}"/>
+    <workbookView xWindow="9060" yWindow="1815" windowWidth="28800" windowHeight="15435" xr2:uid="{B0BA5A12-EDD4-4CB3-898D-58D5D4D39DFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Texas COVID-19 Cases reformat" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="152">
   <si>
     <t>County</t>
   </si>
@@ -472,6 +472,27 @@
   <si>
     <t xml:space="preserve">Mayor Turner announces shelter in place for Monday 3/30/2020. </t>
   </si>
+  <si>
+    <t>Aransas</t>
+  </si>
+  <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>Jim Wells</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>Wise</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -823,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190637B0-F912-439D-8706-25FA2E3401EF}">
-  <dimension ref="A1:E734"/>
+  <dimension ref="A1:E980"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A690" workbookViewId="0">
-      <selection activeCell="H729" sqref="H729"/>
+    <sheetView tabSelected="1" topLeftCell="A842" workbookViewId="0">
+      <selection activeCell="G863" sqref="G863"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11297,6 +11318,3573 @@
         <v>43919</v>
       </c>
       <c r="E734" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>99</v>
+      </c>
+      <c r="B735">
+        <v>3</v>
+      </c>
+      <c r="D735" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E735" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>145</v>
+      </c>
+      <c r="B736">
+        <v>2</v>
+      </c>
+      <c r="D736" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E736" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>66</v>
+      </c>
+      <c r="B737">
+        <v>2</v>
+      </c>
+      <c r="D737" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E737" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>73</v>
+      </c>
+      <c r="B738">
+        <v>2</v>
+      </c>
+      <c r="D738" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E738" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>74</v>
+      </c>
+      <c r="B739">
+        <v>6</v>
+      </c>
+      <c r="D739" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E739" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>10</v>
+      </c>
+      <c r="B740">
+        <v>28</v>
+      </c>
+      <c r="C740">
+        <v>1</v>
+      </c>
+      <c r="D740" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E740" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>13</v>
+      </c>
+      <c r="B741">
+        <v>157</v>
+      </c>
+      <c r="C741">
+        <v>5</v>
+      </c>
+      <c r="D741" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E741" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>75</v>
+      </c>
+      <c r="B742">
+        <v>1</v>
+      </c>
+      <c r="D742" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E742" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>22</v>
+      </c>
+      <c r="B743">
+        <v>4</v>
+      </c>
+      <c r="D743" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E743" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>14</v>
+      </c>
+      <c r="B744">
+        <v>61</v>
+      </c>
+      <c r="D744" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E744" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>23</v>
+      </c>
+      <c r="B745">
+        <v>44</v>
+      </c>
+      <c r="C745">
+        <v>2</v>
+      </c>
+      <c r="D745" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E745" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>44</v>
+      </c>
+      <c r="B746">
+        <v>3</v>
+      </c>
+      <c r="D746" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E746" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>123</v>
+      </c>
+      <c r="B747">
+        <v>1</v>
+      </c>
+      <c r="D747" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E747" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>76</v>
+      </c>
+      <c r="B748">
+        <v>2</v>
+      </c>
+      <c r="D748" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E748" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>124</v>
+      </c>
+      <c r="B749">
+        <v>1</v>
+      </c>
+      <c r="D749" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E749" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>100</v>
+      </c>
+      <c r="B750">
+        <v>3</v>
+      </c>
+      <c r="D750" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E750" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>29</v>
+      </c>
+      <c r="B751">
+        <v>20</v>
+      </c>
+      <c r="D751" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E751" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>77</v>
+      </c>
+      <c r="B752">
+        <v>2</v>
+      </c>
+      <c r="D752" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E752" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>45</v>
+      </c>
+      <c r="B753">
+        <v>8</v>
+      </c>
+      <c r="D753" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E753" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>46</v>
+      </c>
+      <c r="B754">
+        <v>5</v>
+      </c>
+      <c r="D754" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E754" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>109</v>
+      </c>
+      <c r="B755">
+        <v>1</v>
+      </c>
+      <c r="D755" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E755" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>3</v>
+      </c>
+      <c r="B756">
+        <v>134</v>
+      </c>
+      <c r="C756">
+        <v>1</v>
+      </c>
+      <c r="D756" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E756" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>47</v>
+      </c>
+      <c r="B757">
+        <v>9</v>
+      </c>
+      <c r="C757">
+        <v>1</v>
+      </c>
+      <c r="D757" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E757" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>78</v>
+      </c>
+      <c r="B758">
+        <v>1</v>
+      </c>
+      <c r="D758" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E758" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>30</v>
+      </c>
+      <c r="B759">
+        <v>1</v>
+      </c>
+      <c r="D759" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E759" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>4</v>
+      </c>
+      <c r="B760">
+        <v>488</v>
+      </c>
+      <c r="C760">
+        <v>10</v>
+      </c>
+      <c r="D760" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E760" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>131</v>
+      </c>
+      <c r="B761">
+        <v>1</v>
+      </c>
+      <c r="D761" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E761" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>48</v>
+      </c>
+      <c r="B762">
+        <v>2</v>
+      </c>
+      <c r="D762" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E762" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>24</v>
+      </c>
+      <c r="B763">
+        <v>165</v>
+      </c>
+      <c r="C763">
+        <v>2</v>
+      </c>
+      <c r="D763" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E763" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>79</v>
+      </c>
+      <c r="B764">
+        <v>3</v>
+      </c>
+      <c r="D764" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E764" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>67</v>
+      </c>
+      <c r="B765">
+        <v>3</v>
+      </c>
+      <c r="D765" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E765" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>132</v>
+      </c>
+      <c r="B766">
+        <v>3</v>
+      </c>
+      <c r="D766" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E766" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>32</v>
+      </c>
+      <c r="B767">
+        <v>15</v>
+      </c>
+      <c r="D767" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E767" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>15</v>
+      </c>
+      <c r="B768">
+        <v>40</v>
+      </c>
+      <c r="D768" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E768" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>80</v>
+      </c>
+      <c r="B769">
+        <v>1</v>
+      </c>
+      <c r="D769" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E769" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>57</v>
+      </c>
+      <c r="B770">
+        <v>1</v>
+      </c>
+      <c r="D770" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E770" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>33</v>
+      </c>
+      <c r="B771">
+        <v>1</v>
+      </c>
+      <c r="D771" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E771" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>81</v>
+      </c>
+      <c r="B772">
+        <v>2</v>
+      </c>
+      <c r="D772" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E772" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>5</v>
+      </c>
+      <c r="B773">
+        <v>119</v>
+      </c>
+      <c r="C773">
+        <v>1</v>
+      </c>
+      <c r="D773" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E773" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>133</v>
+      </c>
+      <c r="B774">
+        <v>1</v>
+      </c>
+      <c r="D774" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E774" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>82</v>
+      </c>
+      <c r="B775">
+        <v>1</v>
+      </c>
+      <c r="D775" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E775" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>16</v>
+      </c>
+      <c r="B776">
+        <v>70</v>
+      </c>
+      <c r="D776" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E776" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>58</v>
+      </c>
+      <c r="B777">
+        <v>6</v>
+      </c>
+      <c r="D777" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E777" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>6</v>
+      </c>
+      <c r="B778">
+        <v>5</v>
+      </c>
+      <c r="D778" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E778" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>68</v>
+      </c>
+      <c r="B779">
+        <v>2</v>
+      </c>
+      <c r="D779" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E779" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>63</v>
+      </c>
+      <c r="B780">
+        <v>13</v>
+      </c>
+      <c r="D780" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E780" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>110</v>
+      </c>
+      <c r="B781">
+        <v>1</v>
+      </c>
+      <c r="D781" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E781" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>69</v>
+      </c>
+      <c r="B782">
+        <v>9</v>
+      </c>
+      <c r="C782">
+        <v>1</v>
+      </c>
+      <c r="D782" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E782" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>7</v>
+      </c>
+      <c r="B783">
+        <v>526</v>
+      </c>
+      <c r="C783">
+        <v>4</v>
+      </c>
+      <c r="D783" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E783" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>111</v>
+      </c>
+      <c r="B784">
+        <v>1</v>
+      </c>
+      <c r="D784" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E784" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>17</v>
+      </c>
+      <c r="B785">
+        <v>16</v>
+      </c>
+      <c r="D785" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E785" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>59</v>
+      </c>
+      <c r="B786">
+        <v>28</v>
+      </c>
+      <c r="D786" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E786" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>146</v>
+      </c>
+      <c r="B787">
+        <v>1</v>
+      </c>
+      <c r="D787" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E787" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>34</v>
+      </c>
+      <c r="B788">
+        <v>7</v>
+      </c>
+      <c r="D788" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E788" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>112</v>
+      </c>
+      <c r="B789">
+        <v>3</v>
+      </c>
+      <c r="D789" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E789" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>83</v>
+      </c>
+      <c r="B790">
+        <v>2</v>
+      </c>
+      <c r="D790" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E790" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>84</v>
+      </c>
+      <c r="B791">
+        <v>3</v>
+      </c>
+      <c r="D791" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E791" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>101</v>
+      </c>
+      <c r="B792">
+        <v>1</v>
+      </c>
+      <c r="D792" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E792" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>64</v>
+      </c>
+      <c r="B793">
+        <v>18</v>
+      </c>
+      <c r="D793" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E793" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>147</v>
+      </c>
+      <c r="B794">
+        <v>1</v>
+      </c>
+      <c r="D794" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E794" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>35</v>
+      </c>
+      <c r="B795">
+        <v>8</v>
+      </c>
+      <c r="C795">
+        <v>1</v>
+      </c>
+      <c r="D795" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E795" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>102</v>
+      </c>
+      <c r="B796">
+        <v>2</v>
+      </c>
+      <c r="D796" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E796" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>70</v>
+      </c>
+      <c r="B797">
+        <v>3</v>
+      </c>
+      <c r="D797" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E797" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>71</v>
+      </c>
+      <c r="B798">
+        <v>7</v>
+      </c>
+      <c r="D798" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E798" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>134</v>
+      </c>
+      <c r="B799">
+        <v>1</v>
+      </c>
+      <c r="D799" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E799" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>85</v>
+      </c>
+      <c r="B800">
+        <v>3</v>
+      </c>
+      <c r="D800" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E800" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>125</v>
+      </c>
+      <c r="B801">
+        <v>1</v>
+      </c>
+      <c r="D801" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E801" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>18</v>
+      </c>
+      <c r="B802">
+        <v>1</v>
+      </c>
+      <c r="D802" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E802" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>148</v>
+      </c>
+      <c r="B803">
+        <v>1</v>
+      </c>
+      <c r="D803" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E803" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>86</v>
+      </c>
+      <c r="B804">
+        <v>2</v>
+      </c>
+      <c r="D804" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E804" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>87</v>
+      </c>
+      <c r="B805">
+        <v>2</v>
+      </c>
+      <c r="D805" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E805" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>88</v>
+      </c>
+      <c r="B806">
+        <v>3</v>
+      </c>
+      <c r="D806" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E806" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>36</v>
+      </c>
+      <c r="B807">
+        <v>51</v>
+      </c>
+      <c r="D807" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E807" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>126</v>
+      </c>
+      <c r="B808">
+        <v>2</v>
+      </c>
+      <c r="D808" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E808" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>37</v>
+      </c>
+      <c r="B809">
+        <v>36</v>
+      </c>
+      <c r="D809" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E809" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>103</v>
+      </c>
+      <c r="B810">
+        <v>1</v>
+      </c>
+      <c r="D810" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E810" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>21</v>
+      </c>
+      <c r="B811">
+        <v>13</v>
+      </c>
+      <c r="C811">
+        <v>1</v>
+      </c>
+      <c r="D811" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E811" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>89</v>
+      </c>
+      <c r="B812">
+        <v>1</v>
+      </c>
+      <c r="D812" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E812" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>25</v>
+      </c>
+      <c r="B813">
+        <v>3</v>
+      </c>
+      <c r="D813" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E813" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>49</v>
+      </c>
+      <c r="B814">
+        <v>13</v>
+      </c>
+      <c r="C814">
+        <v>1</v>
+      </c>
+      <c r="D814" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E814" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>72</v>
+      </c>
+      <c r="B815">
+        <v>2</v>
+      </c>
+      <c r="D815" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E815" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>113</v>
+      </c>
+      <c r="B816">
+        <v>1</v>
+      </c>
+      <c r="D816" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E816" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>8</v>
+      </c>
+      <c r="B817">
+        <v>66</v>
+      </c>
+      <c r="D817" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E817" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>149</v>
+      </c>
+      <c r="B818">
+        <v>1</v>
+      </c>
+      <c r="D818" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E818" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>90</v>
+      </c>
+      <c r="B819">
+        <v>1</v>
+      </c>
+      <c r="D819" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E819" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>104</v>
+      </c>
+      <c r="B820">
+        <v>2</v>
+      </c>
+      <c r="D820" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E820" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>114</v>
+      </c>
+      <c r="B821">
+        <v>3</v>
+      </c>
+      <c r="D821" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E821" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>50</v>
+      </c>
+      <c r="B822">
+        <v>22</v>
+      </c>
+      <c r="D822" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E822" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>51</v>
+      </c>
+      <c r="B823">
+        <v>2</v>
+      </c>
+      <c r="C823">
+        <v>1</v>
+      </c>
+      <c r="D823" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E823" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>91</v>
+      </c>
+      <c r="B824">
+        <v>5</v>
+      </c>
+      <c r="D824" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E824" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>60</v>
+      </c>
+      <c r="B825">
+        <v>4</v>
+      </c>
+      <c r="D825" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E825" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>135</v>
+      </c>
+      <c r="B826">
+        <v>1</v>
+      </c>
+      <c r="D826" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E826" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>52</v>
+      </c>
+      <c r="B827">
+        <v>5</v>
+      </c>
+      <c r="D827" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E827" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>127</v>
+      </c>
+      <c r="B828">
+        <v>6</v>
+      </c>
+      <c r="D828" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E828" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>92</v>
+      </c>
+      <c r="B829">
+        <v>2</v>
+      </c>
+      <c r="D829" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E829" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>105</v>
+      </c>
+      <c r="B830">
+        <v>4</v>
+      </c>
+      <c r="D830" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E830" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>26</v>
+      </c>
+      <c r="B831">
+        <v>3</v>
+      </c>
+      <c r="D831" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E831" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>136</v>
+      </c>
+      <c r="B832">
+        <v>1</v>
+      </c>
+      <c r="D832" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E832" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>106</v>
+      </c>
+      <c r="B833">
+        <v>1</v>
+      </c>
+      <c r="D833" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E833" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>115</v>
+      </c>
+      <c r="B834">
+        <v>2</v>
+      </c>
+      <c r="D834" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E834" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>11</v>
+      </c>
+      <c r="B835">
+        <v>32</v>
+      </c>
+      <c r="C835">
+        <v>1</v>
+      </c>
+      <c r="D835" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E835" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>116</v>
+      </c>
+      <c r="B836">
+        <v>2</v>
+      </c>
+      <c r="D836" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E836" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>137</v>
+      </c>
+      <c r="B837">
+        <v>1</v>
+      </c>
+      <c r="D837" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E837" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>9</v>
+      </c>
+      <c r="B838">
+        <v>139</v>
+      </c>
+      <c r="C838">
+        <v>1</v>
+      </c>
+      <c r="D838" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E838" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>117</v>
+      </c>
+      <c r="B839">
+        <v>7</v>
+      </c>
+      <c r="D839" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E839" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>93</v>
+      </c>
+      <c r="B840">
+        <v>3</v>
+      </c>
+      <c r="D840" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E840" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>94</v>
+      </c>
+      <c r="B841">
+        <v>5</v>
+      </c>
+      <c r="D841" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E841" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>12</v>
+      </c>
+      <c r="B842">
+        <v>200</v>
+      </c>
+      <c r="C842">
+        <v>1</v>
+      </c>
+      <c r="D842" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E842" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>95</v>
+      </c>
+      <c r="B843">
+        <v>2</v>
+      </c>
+      <c r="D843" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E843" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>118</v>
+      </c>
+      <c r="B844">
+        <v>2</v>
+      </c>
+      <c r="D844" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E844" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>107</v>
+      </c>
+      <c r="B845">
+        <v>5</v>
+      </c>
+      <c r="D845" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E845" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>96</v>
+      </c>
+      <c r="B846">
+        <v>2</v>
+      </c>
+      <c r="C846">
+        <v>1</v>
+      </c>
+      <c r="D846" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E846" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>108</v>
+      </c>
+      <c r="B847">
+        <v>6</v>
+      </c>
+      <c r="D847" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E847" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>97</v>
+      </c>
+      <c r="B848">
+        <v>3</v>
+      </c>
+      <c r="D848" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E848" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>138</v>
+      </c>
+      <c r="B849">
+        <v>3</v>
+      </c>
+      <c r="D849" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E849" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>128</v>
+      </c>
+      <c r="B850">
+        <v>8</v>
+      </c>
+      <c r="D850" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E850" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>27</v>
+      </c>
+      <c r="B851">
+        <v>32</v>
+      </c>
+      <c r="C851">
+        <v>1</v>
+      </c>
+      <c r="D851" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E851" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>65</v>
+      </c>
+      <c r="B852">
+        <v>6</v>
+      </c>
+      <c r="D852" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E852" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>38</v>
+      </c>
+      <c r="B853">
+        <v>28</v>
+      </c>
+      <c r="D853" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E853" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>119</v>
+      </c>
+      <c r="B854">
+        <v>2</v>
+      </c>
+      <c r="D854" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E854" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>39</v>
+      </c>
+      <c r="B855">
+        <v>37</v>
+      </c>
+      <c r="C855">
+        <v>1</v>
+      </c>
+      <c r="D855" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E855" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>98</v>
+      </c>
+      <c r="B856">
+        <v>2</v>
+      </c>
+      <c r="D856" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E856" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>150</v>
+      </c>
+      <c r="B857">
+        <v>1</v>
+      </c>
+      <c r="D857" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E857" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>121</v>
+      </c>
+      <c r="B858">
+        <v>1</v>
+      </c>
+      <c r="D858" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E858" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>99</v>
+      </c>
+      <c r="B859">
+        <v>4</v>
+      </c>
+      <c r="D859" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E859" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>66</v>
+      </c>
+      <c r="B860">
+        <v>2</v>
+      </c>
+      <c r="D860" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E860" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>73</v>
+      </c>
+      <c r="B861">
+        <v>2</v>
+      </c>
+      <c r="D861" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E861" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>74</v>
+      </c>
+      <c r="B862">
+        <v>6</v>
+      </c>
+      <c r="D862" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E862" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>10</v>
+      </c>
+      <c r="B863">
+        <v>36</v>
+      </c>
+      <c r="C863">
+        <v>1</v>
+      </c>
+      <c r="D863" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E863" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>13</v>
+      </c>
+      <c r="B864">
+        <v>168</v>
+      </c>
+      <c r="C864">
+        <v>5</v>
+      </c>
+      <c r="D864" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E864" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>75</v>
+      </c>
+      <c r="B865">
+        <v>1</v>
+      </c>
+      <c r="D865" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E865" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>22</v>
+      </c>
+      <c r="B866">
+        <v>9</v>
+      </c>
+      <c r="D866" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E866" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>14</v>
+      </c>
+      <c r="B867">
+        <v>79</v>
+      </c>
+      <c r="D867" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E867" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>23</v>
+      </c>
+      <c r="B868">
+        <v>46</v>
+      </c>
+      <c r="C868">
+        <v>2</v>
+      </c>
+      <c r="D868" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E868" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>44</v>
+      </c>
+      <c r="B869">
+        <v>3</v>
+      </c>
+      <c r="D869" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E869" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>123</v>
+      </c>
+      <c r="B870">
+        <v>1</v>
+      </c>
+      <c r="D870" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E870" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>76</v>
+      </c>
+      <c r="B871">
+        <v>2</v>
+      </c>
+      <c r="D871" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E871" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>124</v>
+      </c>
+      <c r="B872">
+        <v>1</v>
+      </c>
+      <c r="D872" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E872" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>100</v>
+      </c>
+      <c r="B873">
+        <v>3</v>
+      </c>
+      <c r="D873" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E873" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>29</v>
+      </c>
+      <c r="B874">
+        <v>26</v>
+      </c>
+      <c r="D874" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E874" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>77</v>
+      </c>
+      <c r="B875">
+        <v>2</v>
+      </c>
+      <c r="D875" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E875" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>45</v>
+      </c>
+      <c r="B876">
+        <v>8</v>
+      </c>
+      <c r="D876" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E876" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>46</v>
+      </c>
+      <c r="B877">
+        <v>8</v>
+      </c>
+      <c r="D877" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E877" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>109</v>
+      </c>
+      <c r="B878">
+        <v>2</v>
+      </c>
+      <c r="D878" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E878" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>3</v>
+      </c>
+      <c r="B879">
+        <v>160</v>
+      </c>
+      <c r="C879">
+        <v>1</v>
+      </c>
+      <c r="D879" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E879" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>47</v>
+      </c>
+      <c r="B880">
+        <v>11</v>
+      </c>
+      <c r="C880">
+        <v>2</v>
+      </c>
+      <c r="D880" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E880" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>78</v>
+      </c>
+      <c r="B881">
+        <v>1</v>
+      </c>
+      <c r="D881" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E881" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>30</v>
+      </c>
+      <c r="B882">
+        <v>1</v>
+      </c>
+      <c r="D882" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E882" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>4</v>
+      </c>
+      <c r="B883">
+        <v>549</v>
+      </c>
+      <c r="C883">
+        <v>11</v>
+      </c>
+      <c r="D883" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E883" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>131</v>
+      </c>
+      <c r="B884">
+        <v>3</v>
+      </c>
+      <c r="D884" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E884" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>48</v>
+      </c>
+      <c r="B885">
+        <v>2</v>
+      </c>
+      <c r="D885" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E885" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>24</v>
+      </c>
+      <c r="B886">
+        <v>191</v>
+      </c>
+      <c r="C886">
+        <v>2</v>
+      </c>
+      <c r="D886" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E886" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>79</v>
+      </c>
+      <c r="B887">
+        <v>3</v>
+      </c>
+      <c r="D887" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E887" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>67</v>
+      </c>
+      <c r="B888">
+        <v>3</v>
+      </c>
+      <c r="D888" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E888" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>132</v>
+      </c>
+      <c r="B889">
+        <v>7</v>
+      </c>
+      <c r="D889" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E889" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>32</v>
+      </c>
+      <c r="B890">
+        <v>16</v>
+      </c>
+      <c r="C890">
+        <v>1</v>
+      </c>
+      <c r="D890" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E890" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>15</v>
+      </c>
+      <c r="B891">
+        <v>46</v>
+      </c>
+      <c r="D891" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E891" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>80</v>
+      </c>
+      <c r="B892">
+        <v>1</v>
+      </c>
+      <c r="D892" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E892" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>57</v>
+      </c>
+      <c r="B893">
+        <v>1</v>
+      </c>
+      <c r="D893" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E893" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>33</v>
+      </c>
+      <c r="B894">
+        <v>1</v>
+      </c>
+      <c r="D894" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E894" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>81</v>
+      </c>
+      <c r="B895">
+        <v>2</v>
+      </c>
+      <c r="D895" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E895" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>5</v>
+      </c>
+      <c r="B896">
+        <v>119</v>
+      </c>
+      <c r="C896">
+        <v>1</v>
+      </c>
+      <c r="D896" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E896" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>133</v>
+      </c>
+      <c r="B897">
+        <v>1</v>
+      </c>
+      <c r="D897" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E897" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>82</v>
+      </c>
+      <c r="B898">
+        <v>1</v>
+      </c>
+      <c r="D898" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E898" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>16</v>
+      </c>
+      <c r="B899">
+        <v>92</v>
+      </c>
+      <c r="D899" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E899" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>58</v>
+      </c>
+      <c r="B900">
+        <v>7</v>
+      </c>
+      <c r="D900" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E900" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>6</v>
+      </c>
+      <c r="B901">
+        <v>5</v>
+      </c>
+      <c r="D901" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E901" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>68</v>
+      </c>
+      <c r="B902">
+        <v>3</v>
+      </c>
+      <c r="D902" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E902" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>63</v>
+      </c>
+      <c r="B903">
+        <v>15</v>
+      </c>
+      <c r="D903" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E903" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="904" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>110</v>
+      </c>
+      <c r="B904">
+        <v>1</v>
+      </c>
+      <c r="D904" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E904" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>69</v>
+      </c>
+      <c r="B905">
+        <v>12</v>
+      </c>
+      <c r="C905">
+        <v>1</v>
+      </c>
+      <c r="D905" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E905" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>7</v>
+      </c>
+      <c r="B906">
+        <v>563</v>
+      </c>
+      <c r="C906">
+        <v>4</v>
+      </c>
+      <c r="D906" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E906" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>111</v>
+      </c>
+      <c r="B907">
+        <v>1</v>
+      </c>
+      <c r="D907" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E907" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>17</v>
+      </c>
+      <c r="B908">
+        <v>24</v>
+      </c>
+      <c r="D908" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E908" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>59</v>
+      </c>
+      <c r="B909">
+        <v>38</v>
+      </c>
+      <c r="D909" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E909" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>146</v>
+      </c>
+      <c r="B910">
+        <v>1</v>
+      </c>
+      <c r="D910" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E910" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>34</v>
+      </c>
+      <c r="B911">
+        <v>7</v>
+      </c>
+      <c r="D911" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E911" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="912" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>112</v>
+      </c>
+      <c r="B912">
+        <v>6</v>
+      </c>
+      <c r="D912" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E912" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="913" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>83</v>
+      </c>
+      <c r="B913">
+        <v>2</v>
+      </c>
+      <c r="D913" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E913" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>84</v>
+      </c>
+      <c r="B914">
+        <v>4</v>
+      </c>
+      <c r="D914" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E914" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="915" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>101</v>
+      </c>
+      <c r="B915">
+        <v>1</v>
+      </c>
+      <c r="D915" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E915" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="916" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>64</v>
+      </c>
+      <c r="B916">
+        <v>18</v>
+      </c>
+      <c r="D916" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E916" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="917" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>35</v>
+      </c>
+      <c r="B917">
+        <v>8</v>
+      </c>
+      <c r="C917">
+        <v>1</v>
+      </c>
+      <c r="D917" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E917" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="918" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>102</v>
+      </c>
+      <c r="B918">
+        <v>2</v>
+      </c>
+      <c r="D918" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E918" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="919" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>70</v>
+      </c>
+      <c r="B919">
+        <v>3</v>
+      </c>
+      <c r="D919" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E919" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="920" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>71</v>
+      </c>
+      <c r="B920">
+        <v>7</v>
+      </c>
+      <c r="D920" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E920" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="921" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>134</v>
+      </c>
+      <c r="B921">
+        <v>1</v>
+      </c>
+      <c r="D921" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E921" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="922" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>85</v>
+      </c>
+      <c r="B922">
+        <v>3</v>
+      </c>
+      <c r="D922" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E922" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="923" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>125</v>
+      </c>
+      <c r="B923">
+        <v>1</v>
+      </c>
+      <c r="D923" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E923" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="924" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>18</v>
+      </c>
+      <c r="B924">
+        <v>1</v>
+      </c>
+      <c r="D924" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E924" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="925" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>148</v>
+      </c>
+      <c r="B925">
+        <v>1</v>
+      </c>
+      <c r="D925" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E925" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="926" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>86</v>
+      </c>
+      <c r="B926">
+        <v>2</v>
+      </c>
+      <c r="D926" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E926" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="927" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>87</v>
+      </c>
+      <c r="B927">
+        <v>2</v>
+      </c>
+      <c r="D927" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E927" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="928" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>88</v>
+      </c>
+      <c r="B928">
+        <v>3</v>
+      </c>
+      <c r="D928" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E928" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="929" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>36</v>
+      </c>
+      <c r="B929">
+        <v>77</v>
+      </c>
+      <c r="D929" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E929" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="930" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>126</v>
+      </c>
+      <c r="B930">
+        <v>2</v>
+      </c>
+      <c r="D930" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E930" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="931" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>37</v>
+      </c>
+      <c r="B931">
+        <v>39</v>
+      </c>
+      <c r="D931" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E931" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="932" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>103</v>
+      </c>
+      <c r="B932">
+        <v>1</v>
+      </c>
+      <c r="D932" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E932" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="933" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>21</v>
+      </c>
+      <c r="B933">
+        <v>13</v>
+      </c>
+      <c r="C933">
+        <v>1</v>
+      </c>
+      <c r="D933" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E933" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="934" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>89</v>
+      </c>
+      <c r="B934">
+        <v>1</v>
+      </c>
+      <c r="D934" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E934" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="935" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>25</v>
+      </c>
+      <c r="B935">
+        <v>3</v>
+      </c>
+      <c r="D935" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E935" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="936" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>49</v>
+      </c>
+      <c r="B936">
+        <v>13</v>
+      </c>
+      <c r="C936">
+        <v>1</v>
+      </c>
+      <c r="D936" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E936" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="937" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>72</v>
+      </c>
+      <c r="B937">
+        <v>2</v>
+      </c>
+      <c r="D937" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E937" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="938" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>113</v>
+      </c>
+      <c r="B938">
+        <v>1</v>
+      </c>
+      <c r="D938" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E938" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>8</v>
+      </c>
+      <c r="B939">
+        <v>81</v>
+      </c>
+      <c r="D939" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E939" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="940" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>149</v>
+      </c>
+      <c r="B940">
+        <v>1</v>
+      </c>
+      <c r="D940" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E940" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="941" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>90</v>
+      </c>
+      <c r="B941">
+        <v>1</v>
+      </c>
+      <c r="D941" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E941" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="942" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>104</v>
+      </c>
+      <c r="B942">
+        <v>2</v>
+      </c>
+      <c r="D942" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E942" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="943" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>114</v>
+      </c>
+      <c r="B943">
+        <v>3</v>
+      </c>
+      <c r="D943" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E943" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>50</v>
+      </c>
+      <c r="B944">
+        <v>31</v>
+      </c>
+      <c r="D944" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E944" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>51</v>
+      </c>
+      <c r="B945">
+        <v>2</v>
+      </c>
+      <c r="C945">
+        <v>1</v>
+      </c>
+      <c r="D945" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E945" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="946" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>91</v>
+      </c>
+      <c r="B946">
+        <v>5</v>
+      </c>
+      <c r="D946" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E946" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="947" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>60</v>
+      </c>
+      <c r="B947">
+        <v>4</v>
+      </c>
+      <c r="D947" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E947" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="948" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>135</v>
+      </c>
+      <c r="B948">
+        <v>4</v>
+      </c>
+      <c r="D948" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E948" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="949" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>52</v>
+      </c>
+      <c r="B949">
+        <v>5</v>
+      </c>
+      <c r="D949" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E949" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="950" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>127</v>
+      </c>
+      <c r="B950">
+        <v>6</v>
+      </c>
+      <c r="D950" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E950" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="951" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>92</v>
+      </c>
+      <c r="B951">
+        <v>2</v>
+      </c>
+      <c r="D951" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E951" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="952" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>105</v>
+      </c>
+      <c r="B952">
+        <v>5</v>
+      </c>
+      <c r="D952" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E952" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="953" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>26</v>
+      </c>
+      <c r="B953">
+        <v>3</v>
+      </c>
+      <c r="D953" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E953" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="954" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>136</v>
+      </c>
+      <c r="B954">
+        <v>1</v>
+      </c>
+      <c r="D954" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E954" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="955" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>106</v>
+      </c>
+      <c r="B955">
+        <v>1</v>
+      </c>
+      <c r="D955" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E955" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="956" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>115</v>
+      </c>
+      <c r="B956">
+        <v>2</v>
+      </c>
+      <c r="D956" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E956" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="957" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>11</v>
+      </c>
+      <c r="B957">
+        <v>32</v>
+      </c>
+      <c r="C957">
+        <v>1</v>
+      </c>
+      <c r="D957" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E957" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="958" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>116</v>
+      </c>
+      <c r="B958">
+        <v>2</v>
+      </c>
+      <c r="D958" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E958" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="959" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>137</v>
+      </c>
+      <c r="B959">
+        <v>1</v>
+      </c>
+      <c r="D959" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E959" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="960" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>9</v>
+      </c>
+      <c r="B960">
+        <v>175</v>
+      </c>
+      <c r="C960">
+        <v>1</v>
+      </c>
+      <c r="D960" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E960" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="961" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>117</v>
+      </c>
+      <c r="B961">
+        <v>11</v>
+      </c>
+      <c r="D961" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E961" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="962" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>93</v>
+      </c>
+      <c r="B962">
+        <v>4</v>
+      </c>
+      <c r="D962" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E962" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="963" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>94</v>
+      </c>
+      <c r="B963">
+        <v>6</v>
+      </c>
+      <c r="D963" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E963" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="964" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>12</v>
+      </c>
+      <c r="B964">
+        <v>206</v>
+      </c>
+      <c r="C964">
+        <v>1</v>
+      </c>
+      <c r="D964" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E964" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="965" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>95</v>
+      </c>
+      <c r="B965">
+        <v>2</v>
+      </c>
+      <c r="D965" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E965" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="966" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>118</v>
+      </c>
+      <c r="B966">
+        <v>2</v>
+      </c>
+      <c r="D966" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E966" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="967" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>107</v>
+      </c>
+      <c r="B967">
+        <v>5</v>
+      </c>
+      <c r="D967" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E967" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="968" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>96</v>
+      </c>
+      <c r="B968">
+        <v>2</v>
+      </c>
+      <c r="C968">
+        <v>1</v>
+      </c>
+      <c r="D968" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E968" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="969" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>108</v>
+      </c>
+      <c r="B969">
+        <v>9</v>
+      </c>
+      <c r="D969" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E969" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="970" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>97</v>
+      </c>
+      <c r="B970">
+        <v>3</v>
+      </c>
+      <c r="D970" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E970" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="971" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>138</v>
+      </c>
+      <c r="B971">
+        <v>3</v>
+      </c>
+      <c r="D971" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E971" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="972" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>128</v>
+      </c>
+      <c r="B972">
+        <v>8</v>
+      </c>
+      <c r="D972" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E972" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="973" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>27</v>
+      </c>
+      <c r="B973">
+        <v>37</v>
+      </c>
+      <c r="C973">
+        <v>1</v>
+      </c>
+      <c r="D973" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E973" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="974" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>65</v>
+      </c>
+      <c r="B974">
+        <v>6</v>
+      </c>
+      <c r="D974" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E974" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="975" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>38</v>
+      </c>
+      <c r="B975">
+        <v>30</v>
+      </c>
+      <c r="D975" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E975" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="976" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>119</v>
+      </c>
+      <c r="B976">
+        <v>2</v>
+      </c>
+      <c r="D976" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E976" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="977" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>39</v>
+      </c>
+      <c r="B977">
+        <v>42</v>
+      </c>
+      <c r="C977">
+        <v>1</v>
+      </c>
+      <c r="D977" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E977" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>98</v>
+      </c>
+      <c r="B978">
+        <v>3</v>
+      </c>
+      <c r="D978" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E978" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>150</v>
+      </c>
+      <c r="B979">
+        <v>1</v>
+      </c>
+      <c r="D979" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E979" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>121</v>
+      </c>
+      <c r="B980">
+        <v>1</v>
+      </c>
+      <c r="D980" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E980" t="s">
         <v>19</v>
       </c>
     </row>
@@ -13824,7 +17412,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13926,10 +17514,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7992613A-794C-49B1-B4A2-0A2A67216B60}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14066,6 +17654,25 @@
         <v>43919</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3704</v>
+      </c>
+      <c r="B11">
+        <v>32176</v>
+      </c>
+      <c r="C11">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-sources/texas-dshs.xlsx
+++ b/data-sources/texas-dshs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\dev\dev-projects\odessacoding.github.io\data-sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB793303-B8B9-4B2A-8A0A-7D0A71F2AE48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FB1D3D-8C00-43ED-A433-589BC5729414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="1815" windowWidth="28800" windowHeight="15435" xr2:uid="{B0BA5A12-EDD4-4CB3-898D-58D5D4D39DFA}"/>
+    <workbookView xWindow="5025" yWindow="5025" windowWidth="28800" windowHeight="15435" xr2:uid="{B0BA5A12-EDD4-4CB3-898D-58D5D4D39DFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Texas COVID-19 Cases reformat" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="165">
   <si>
     <t>County</t>
   </si>
@@ -493,6 +493,45 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Camp</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Comanche</t>
+  </si>
+  <si>
+    <t>Gonzales</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>Henderson</t>
+  </si>
+  <si>
+    <t>Kerr</t>
+  </si>
+  <si>
+    <t>Live Oak</t>
+  </si>
+  <si>
+    <t>Newton</t>
+  </si>
+  <si>
+    <t>San Augustine</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
 </sst>
 </file>
 
@@ -844,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190637B0-F912-439D-8706-25FA2E3401EF}">
-  <dimension ref="A1:E980"/>
+  <dimension ref="A1:E1115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A842" workbookViewId="0">
-      <selection activeCell="G863" sqref="G863"/>
+    <sheetView tabSelected="1" topLeftCell="A1093" workbookViewId="0">
+      <selection activeCell="B1114" sqref="B1114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14885,6 +14924,1968 @@
         <v>43921</v>
       </c>
       <c r="E980" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>152</v>
+      </c>
+      <c r="B981">
+        <v>1</v>
+      </c>
+      <c r="D981" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E981" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>99</v>
+      </c>
+      <c r="B982">
+        <v>5</v>
+      </c>
+      <c r="D982" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E982" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>66</v>
+      </c>
+      <c r="B983">
+        <v>2</v>
+      </c>
+      <c r="D983" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E983" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>73</v>
+      </c>
+      <c r="B984">
+        <v>2</v>
+      </c>
+      <c r="D984" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E984" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>74</v>
+      </c>
+      <c r="B985">
+        <v>8</v>
+      </c>
+      <c r="D985" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E985" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>10</v>
+      </c>
+      <c r="B986">
+        <v>44</v>
+      </c>
+      <c r="C986">
+        <v>1</v>
+      </c>
+      <c r="D986" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E986" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>13</v>
+      </c>
+      <c r="B987">
+        <v>207</v>
+      </c>
+      <c r="C987">
+        <v>9</v>
+      </c>
+      <c r="D987" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E987" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>75</v>
+      </c>
+      <c r="B988">
+        <v>1</v>
+      </c>
+      <c r="D988" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E988" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>22</v>
+      </c>
+      <c r="B989">
+        <v>9</v>
+      </c>
+      <c r="D989" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E989" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>14</v>
+      </c>
+      <c r="B990">
+        <v>95</v>
+      </c>
+      <c r="C990">
+        <v>1</v>
+      </c>
+      <c r="D990" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E990" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="991" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>23</v>
+      </c>
+      <c r="B991">
+        <v>53</v>
+      </c>
+      <c r="C991">
+        <v>2</v>
+      </c>
+      <c r="D991" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E991" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="992" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>44</v>
+      </c>
+      <c r="B992">
+        <v>3</v>
+      </c>
+      <c r="D992" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E992" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>123</v>
+      </c>
+      <c r="B993">
+        <v>1</v>
+      </c>
+      <c r="D993" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E993" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>76</v>
+      </c>
+      <c r="B994">
+        <v>3</v>
+      </c>
+      <c r="D994" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E994" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>124</v>
+      </c>
+      <c r="B995">
+        <v>1</v>
+      </c>
+      <c r="D995" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E995" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>100</v>
+      </c>
+      <c r="B996">
+        <v>7</v>
+      </c>
+      <c r="D996" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E996" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>29</v>
+      </c>
+      <c r="B997">
+        <v>26</v>
+      </c>
+      <c r="D997" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E997" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>153</v>
+      </c>
+      <c r="B998">
+        <v>1</v>
+      </c>
+      <c r="D998" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E998" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>77</v>
+      </c>
+      <c r="B999">
+        <v>3</v>
+      </c>
+      <c r="D999" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E999" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1000">
+        <v>8</v>
+      </c>
+      <c r="D1000" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1001">
+        <v>9</v>
+      </c>
+      <c r="D1001" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1002">
+        <v>4</v>
+      </c>
+      <c r="D1002" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1003">
+        <v>1</v>
+      </c>
+      <c r="D1003" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1004">
+        <v>184</v>
+      </c>
+      <c r="C1004">
+        <v>1</v>
+      </c>
+      <c r="D1004" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1005">
+        <v>2</v>
+      </c>
+      <c r="D1005" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1006">
+        <v>11</v>
+      </c>
+      <c r="C1006">
+        <v>2</v>
+      </c>
+      <c r="D1006" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1007">
+        <v>1</v>
+      </c>
+      <c r="D1007" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1008">
+        <v>1</v>
+      </c>
+      <c r="D1008" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1009">
+        <v>2</v>
+      </c>
+      <c r="D1009" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1010">
+        <v>631</v>
+      </c>
+      <c r="C1010">
+        <v>13</v>
+      </c>
+      <c r="D1010" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1011">
+        <v>3</v>
+      </c>
+      <c r="D1011" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1012">
+        <v>2</v>
+      </c>
+      <c r="D1012" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1013">
+        <v>206</v>
+      </c>
+      <c r="C1013">
+        <v>4</v>
+      </c>
+      <c r="D1013" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1014">
+        <v>4</v>
+      </c>
+      <c r="D1014" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1015">
+        <v>3</v>
+      </c>
+      <c r="D1015" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1016">
+        <v>11</v>
+      </c>
+      <c r="D1016" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1017">
+        <v>20</v>
+      </c>
+      <c r="C1017">
+        <v>1</v>
+      </c>
+      <c r="D1017" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1018">
+        <v>50</v>
+      </c>
+      <c r="D1018" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1019">
+        <v>2</v>
+      </c>
+      <c r="D1019" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1020">
+        <v>1</v>
+      </c>
+      <c r="D1020" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1021">
+        <v>1</v>
+      </c>
+      <c r="D1021" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1022">
+        <v>4</v>
+      </c>
+      <c r="D1022" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1023">
+        <v>163</v>
+      </c>
+      <c r="C1023">
+        <v>2</v>
+      </c>
+      <c r="D1023" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1024">
+        <v>1</v>
+      </c>
+      <c r="D1024" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1025">
+        <v>1</v>
+      </c>
+      <c r="D1025" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1026">
+        <v>106</v>
+      </c>
+      <c r="D1026" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1027">
+        <v>1</v>
+      </c>
+      <c r="D1027" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1028">
+        <v>1</v>
+      </c>
+      <c r="D1028" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1029">
+        <v>8</v>
+      </c>
+      <c r="D1029" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1030">
+        <v>6</v>
+      </c>
+      <c r="D1030" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1031">
+        <v>3</v>
+      </c>
+      <c r="D1031" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1032">
+        <v>17</v>
+      </c>
+      <c r="D1032" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1033">
+        <v>1</v>
+      </c>
+      <c r="D1033" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1034">
+        <v>13</v>
+      </c>
+      <c r="C1034">
+        <v>1</v>
+      </c>
+      <c r="D1034" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1035">
+        <v>680</v>
+      </c>
+      <c r="C1035">
+        <v>6</v>
+      </c>
+      <c r="D1035" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1036">
+        <v>3</v>
+      </c>
+      <c r="D1036" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1037">
+        <v>38</v>
+      </c>
+      <c r="D1037" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1038">
+        <v>1</v>
+      </c>
+      <c r="D1038" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1039">
+        <v>46</v>
+      </c>
+      <c r="D1039" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1040">
+        <v>2</v>
+      </c>
+      <c r="D1040" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1041">
+        <v>7</v>
+      </c>
+      <c r="D1041" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1042">
+        <v>6</v>
+      </c>
+      <c r="D1042" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1043">
+        <v>3</v>
+      </c>
+      <c r="D1043" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1044">
+        <v>4</v>
+      </c>
+      <c r="D1044" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1045">
+        <v>1</v>
+      </c>
+      <c r="D1045" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1046">
+        <v>27</v>
+      </c>
+      <c r="D1046" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1047">
+        <v>12</v>
+      </c>
+      <c r="C1047">
+        <v>1</v>
+      </c>
+      <c r="D1047" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1048">
+        <v>2</v>
+      </c>
+      <c r="D1048" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1049">
+        <v>4</v>
+      </c>
+      <c r="D1049" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1050">
+        <v>7</v>
+      </c>
+      <c r="D1050" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1051">
+        <v>1</v>
+      </c>
+      <c r="D1051" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1052">
+        <v>1</v>
+      </c>
+      <c r="D1052" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1053">
+        <v>3</v>
+      </c>
+      <c r="D1053" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1054">
+        <v>1</v>
+      </c>
+      <c r="D1054" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1055">
+        <v>1</v>
+      </c>
+      <c r="D1055" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1056">
+        <v>2</v>
+      </c>
+      <c r="D1056" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1057">
+        <v>3</v>
+      </c>
+      <c r="D1057" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1058">
+        <v>2</v>
+      </c>
+      <c r="D1058" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1059">
+        <v>1</v>
+      </c>
+      <c r="D1059" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1060">
+        <v>3</v>
+      </c>
+      <c r="D1060" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1061">
+        <v>100</v>
+      </c>
+      <c r="C1061">
+        <v>2</v>
+      </c>
+      <c r="D1061" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1062">
+        <v>2</v>
+      </c>
+      <c r="D1062" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1063">
+        <v>44</v>
+      </c>
+      <c r="C1063">
+        <v>1</v>
+      </c>
+      <c r="D1063" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1064">
+        <v>1</v>
+      </c>
+      <c r="D1064" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1065">
+        <v>25</v>
+      </c>
+      <c r="C1065">
+        <v>1</v>
+      </c>
+      <c r="D1065" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1066">
+        <v>1</v>
+      </c>
+      <c r="D1066" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1067">
+        <v>3</v>
+      </c>
+      <c r="D1067" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1068">
+        <v>16</v>
+      </c>
+      <c r="C1068">
+        <v>1</v>
+      </c>
+      <c r="D1068" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1069">
+        <v>2</v>
+      </c>
+      <c r="D1069" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1070">
+        <v>1</v>
+      </c>
+      <c r="D1070" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1071">
+        <v>93</v>
+      </c>
+      <c r="D1071" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1072">
+        <v>1</v>
+      </c>
+      <c r="D1072" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1073">
+        <v>1</v>
+      </c>
+      <c r="D1073" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1074">
+        <v>4</v>
+      </c>
+      <c r="D1074" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1075">
+        <v>4</v>
+      </c>
+      <c r="D1075" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1076">
+        <v>1</v>
+      </c>
+      <c r="D1076" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1077">
+        <v>34</v>
+      </c>
+      <c r="D1077" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1078">
+        <v>2</v>
+      </c>
+      <c r="C1078">
+        <v>1</v>
+      </c>
+      <c r="D1078" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1079">
+        <v>7</v>
+      </c>
+      <c r="D1079" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1080">
+        <v>4</v>
+      </c>
+      <c r="D1080" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1081">
+        <v>4</v>
+      </c>
+      <c r="D1081" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1082">
+        <v>10</v>
+      </c>
+      <c r="D1082" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1083">
+        <v>6</v>
+      </c>
+      <c r="D1083" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1084">
+        <v>2</v>
+      </c>
+      <c r="D1084" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1085">
+        <v>9</v>
+      </c>
+      <c r="D1085" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1086">
+        <v>5</v>
+      </c>
+      <c r="D1086" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1087">
+        <v>1</v>
+      </c>
+      <c r="D1087" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1088">
+        <v>1</v>
+      </c>
+      <c r="D1088" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1089">
+        <v>2</v>
+      </c>
+      <c r="D1089" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1090">
+        <v>2</v>
+      </c>
+      <c r="D1090" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1091">
+        <v>37</v>
+      </c>
+      <c r="C1091">
+        <v>1</v>
+      </c>
+      <c r="D1091" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1092" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1092">
+        <v>4</v>
+      </c>
+      <c r="D1092" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1093">
+        <v>1</v>
+      </c>
+      <c r="D1093" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1094">
+        <v>273</v>
+      </c>
+      <c r="C1094">
+        <v>1</v>
+      </c>
+      <c r="D1094" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1095">
+        <v>14</v>
+      </c>
+      <c r="D1095" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1096" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1096">
+        <v>4</v>
+      </c>
+      <c r="D1096" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1097">
+        <v>9</v>
+      </c>
+      <c r="D1097" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1098">
+        <v>244</v>
+      </c>
+      <c r="C1098">
+        <v>2</v>
+      </c>
+      <c r="D1098" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1099">
+        <v>2</v>
+      </c>
+      <c r="D1099" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1100">
+        <v>4</v>
+      </c>
+      <c r="D1100" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1101">
+        <v>5</v>
+      </c>
+      <c r="D1101" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1102">
+        <v>2</v>
+      </c>
+      <c r="C1102">
+        <v>1</v>
+      </c>
+      <c r="D1102" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1103">
+        <v>16</v>
+      </c>
+      <c r="D1103" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1104">
+        <v>5</v>
+      </c>
+      <c r="D1104" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1105">
+        <v>3</v>
+      </c>
+      <c r="D1105" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1106">
+        <v>17</v>
+      </c>
+      <c r="D1106" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1107">
+        <v>45</v>
+      </c>
+      <c r="C1107">
+        <v>2</v>
+      </c>
+      <c r="D1107" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1108">
+        <v>7</v>
+      </c>
+      <c r="D1108" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1109">
+        <v>38</v>
+      </c>
+      <c r="D1109" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1110">
+        <v>2</v>
+      </c>
+      <c r="D1110" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1111">
+        <v>50</v>
+      </c>
+      <c r="C1111">
+        <v>1</v>
+      </c>
+      <c r="D1111" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1112">
+        <v>5</v>
+      </c>
+      <c r="D1112" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1113">
+        <v>3</v>
+      </c>
+      <c r="D1113" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1114">
+        <v>1</v>
+      </c>
+      <c r="D1114" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1115">
+        <v>3</v>
+      </c>
+      <c r="D1115" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E1115" t="s">
         <v>19</v>
       </c>
     </row>
@@ -17517,7 +19518,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17668,6 +19669,20 @@
         <v>43920</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4259</v>
+      </c>
+      <c r="B12">
+        <v>43598</v>
+      </c>
+      <c r="C12">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43922</v>
+      </c>
+    </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>151</v>
